--- a/data/test_spreadshhet.xlsx
+++ b/data/test_spreadshhet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="89">
   <si>
     <t xml:space="preserve">Manchester City</t>
   </si>
@@ -83,17 +83,222 @@
     <t xml:space="preserve">Cardiff</t>
   </si>
   <si>
-    <t xml:space="preserve">Predictions 2018/2019 Michael McCrann</t>
+    <t xml:space="preserve">OrderDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/6/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pencil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kivell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/9/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorvino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/1/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/5/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/8/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/1/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/5/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/8/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/15/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/1/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/18/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/7/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/24/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/10/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/27/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/14/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/31/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/17/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/4/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/21/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/7/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/24/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/27/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/14/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/17/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/4/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/21/2019 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +324,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -164,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,8 +389,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -387,15 +615,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -404,165 +632,1012 @@
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>0</v>
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>189.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>999.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>179.64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>539.73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>167.44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>299.4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>149.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>63.68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>1619.19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="F16" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>255.84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>251.72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>299.85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>1183.26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>413.54</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>139.93</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>66</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>125</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="F37" s="7" t="n">
+        <v>275</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="F38" s="7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>1139.43</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>19</v>
+      <c r="F42" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>94</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>139.72</v>
       </c>
     </row>
   </sheetData>
